--- a/biology/Zoologie/Damier_du_Cap/Damier_du_Cap.xlsx
+++ b/biology/Zoologie/Damier_du_Cap/Damier_du_Cap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daption capense
 Le Damier du Cap (Daption capense), appelé également Pétrel du Cap est une espèce d'oiseau appartenant à la famille des Procellariidae.
@@ -512,9 +524,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Daption capense a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Procellaria capensis [1], et reclassé dans le genre Daption par le zoologiste britannique James Francis Stephens en 1826.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Daption capense a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Procellaria capensis , et reclassé dans le genre Daption par le zoologiste britannique James Francis Stephens en 1826.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 39 cm pour une envergure de 81 à 91 cm. Il présente un plumage noir et blanc très contrasté.
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vol de cet oiseau est constitué de cinq à huit battements d'ailes rigides suivis d'une phase planée.
 </t>
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau niche dans l'hémisphère sud. Il est occasionnel au large du Togo.
 </t>
